--- a/01_Dataset_Cleaned/tc_df_Gmin_check.xlsx
+++ b/01_Dataset_Cleaned/tc_df_Gmin_check.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>V</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -519,29 +519,27 @@
         <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>-14154.85908211163</v>
+        <v>-14183.18447001974</v>
       </c>
       <c r="F2" t="n">
-        <v>-10253.82369623779</v>
+        <v>-10292.98087726998</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-839.4010222419768</v>
+        <v>-928.6897415869695</v>
       </c>
       <c r="I2" t="n">
-        <v>-663.8953987697348</v>
+        <v>-629.938325074706</v>
       </c>
       <c r="J2" t="n">
-        <v>-4570.841486579698</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20316.49032189495</v>
-      </c>
+        <v>-4565.681899971241</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>-4609.182350115519</v>
+        <v>-4578.504458933322</v>
       </c>
       <c r="M2" t="n">
-        <v>-4599.662929223</v>
+        <v>-4522.497628523165</v>
       </c>
       <c r="N2" t="inlineStr"/>
     </row>
@@ -559,29 +557,27 @@
         <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>-14332.12225646437</v>
+        <v>-14451.63014762538</v>
       </c>
       <c r="F3" t="n">
-        <v>-10715.26985312944</v>
+        <v>-10881.86658065761</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-2254.259714133598</v>
+        <v>-2353.066678563286</v>
       </c>
       <c r="I3" t="n">
-        <v>-1290.452247229922</v>
+        <v>-1255.730529807572</v>
       </c>
       <c r="J3" t="n">
-        <v>-5456.189424358291</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19753.98133457929</v>
-      </c>
+        <v>-5450.305360900465</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-5155.909423257767</v>
+        <v>-5121.309757616637</v>
       </c>
       <c r="M3" t="n">
-        <v>-5140.536329557335</v>
+        <v>-5067.488145914457</v>
       </c>
       <c r="N3" t="inlineStr"/>
     </row>
@@ -599,29 +595,27 @@
         <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-14489.12231122668</v>
+        <v>-14607.17717813775</v>
       </c>
       <c r="F4" t="n">
-        <v>-11207.35377403461</v>
+        <v>-11369.20619659799</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-3520.307093349324</v>
+        <v>-3628.208454421333</v>
       </c>
       <c r="I4" t="n">
-        <v>-1812.551730398267</v>
+        <v>-1776.940854325573</v>
       </c>
       <c r="J4" t="n">
-        <v>-6218.000107837071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19306.78097946099</v>
-      </c>
+        <v>-6211.503493381045</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-5587.969476714698</v>
+        <v>-5549.715987251442</v>
       </c>
       <c r="M4" t="n">
-        <v>-5566.910623883511</v>
+        <v>-5498.044885629983</v>
       </c>
       <c r="N4" t="inlineStr"/>
     </row>
@@ -639,29 +633,27 @@
         <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>-14600.24638305874</v>
+        <v>-14715.95194719848</v>
       </c>
       <c r="F5" t="n">
-        <v>-11660.82400555886</v>
+        <v>-11820.35809734517</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-4703.534839718262</v>
+        <v>-4820.08149163836</v>
       </c>
       <c r="I5" t="n">
-        <v>-2295.259992994301</v>
+        <v>-2258.613597745969</v>
       </c>
       <c r="J5" t="n">
-        <v>-6922.153519630516</v>
-      </c>
-      <c r="K5" t="n">
-        <v>18908.6548560362</v>
-      </c>
+        <v>-6915.132572357468</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-5971.600201940496</v>
+        <v>-5929.943442924716</v>
       </c>
       <c r="M5" t="n">
-        <v>-5945.025048945752</v>
+        <v>-5880.387584530722</v>
       </c>
       <c r="N5" t="inlineStr"/>
     </row>
@@ -679,29 +671,27 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>-14680.15442942173</v>
+        <v>-14793.79186932605</v>
       </c>
       <c r="F6" t="n">
-        <v>-12092.45530701307</v>
+        <v>-12250.36119510925</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-5819.623391202492</v>
+        <v>-5944.35577589878</v>
       </c>
       <c r="I6" t="n">
-        <v>-2753.32332543993</v>
+        <v>-2715.488015173945</v>
       </c>
       <c r="J6" t="n">
-        <v>-7583.80818025239</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18543.67123038988</v>
-      </c>
+        <v>-7576.345533869796</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-6322.736606451259</v>
+        <v>-6277.924617352154</v>
       </c>
       <c r="M6" t="n">
-        <v>-6290.816253352185</v>
+        <v>-6230.448167689497</v>
       </c>
       <c r="N6" t="inlineStr"/>
     </row>
@@ -719,29 +709,27 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="n">
-        <v>-14736.36746943295</v>
+        <v>-14848.20392240504</v>
       </c>
       <c r="F7" t="n">
-        <v>-12509.31664933885</v>
+        <v>-12665.89430730611</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-6875.913290694078</v>
+        <v>-7008.363836899763</v>
       </c>
       <c r="I7" t="n">
-        <v>-3193.138866609081</v>
+        <v>-3153.956635365099</v>
       </c>
       <c r="J7" t="n">
-        <v>-8209.246344209552</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18204.23012649126</v>
-      </c>
+        <v>-8201.427378291623</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-6648.981933294448</v>
+        <v>-6601.262722661349</v>
       </c>
       <c r="M7" t="n">
-        <v>-6611.889226073848</v>
+        <v>-6555.829272629995</v>
       </c>
       <c r="N7" t="inlineStr"/>
     </row>
@@ -759,29 +747,27 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="n">
-        <v>-14773.31828730855</v>
+        <v>-14883.55003131686</v>
       </c>
       <c r="F8" t="n">
-        <v>-12915.09454745114</v>
+        <v>-13070.52207354186</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-7876.593791736068</v>
+        <v>-8016.287836951538</v>
       </c>
       <c r="I8" t="n">
-        <v>-3617.941295515297</v>
+        <v>-3577.250423383984</v>
       </c>
       <c r="J8" t="n">
-        <v>-8800.867571039742</v>
-      </c>
-      <c r="K8" t="n">
-        <v>17885.87642615178</v>
-      </c>
+        <v>-8792.790320443228</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-6954.79457584529</v>
+        <v>-6904.41705865398</v>
       </c>
       <c r="M8" t="n">
-        <v>-6912.704222338971</v>
+        <v>-6860.989621028377</v>
       </c>
       <c r="N8" t="inlineStr"/>
     </row>
@@ -799,29 +785,27 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>-14793.88431482774</v>
+        <v>-14902.65025665397</v>
       </c>
       <c r="F9" t="n">
-        <v>-13312.13615863422</v>
+        <v>-13466.52626935737</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-8824.308808827907</v>
+        <v>-8970.765043742313</v>
       </c>
       <c r="I9" t="n">
-        <v>-4029.406267309377</v>
+        <v>-3987.041744052542</v>
       </c>
       <c r="J9" t="n">
-        <v>-9358.44602435026</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17585.69622224617</v>
-      </c>
+        <v>-9350.235545661561</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-7243.091744601938</v>
+        <v>-7190.306183336441</v>
       </c>
       <c r="M9" t="n">
-        <v>-7196.180444075129</v>
+        <v>-7148.84719370309</v>
       </c>
       <c r="N9" t="inlineStr"/>
     </row>
@@ -839,29 +823,27 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>-14800.05381982013</v>
+        <v>-14907.4500135939</v>
       </c>
       <c r="F10" t="n">
-        <v>-13702.50823195238</v>
+        <v>-13855.87052587433</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-9720.826504570856</v>
+        <v>-9873.557171823008</v>
       </c>
       <c r="I10" t="n">
-        <v>-4428.317599139966</v>
+        <v>-4384.111351108766</v>
       </c>
       <c r="J10" t="n">
-        <v>-9879.118919567192</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17301.64941956975</v>
-      </c>
+        <v>-9870.950425022505</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-7515.916893211494</v>
+        <v>-7460.975110716958</v>
       </c>
       <c r="M10" t="n">
-        <v>-7464.363482410605</v>
+        <v>-7421.446433845468</v>
       </c>
       <c r="N10" t="inlineStr"/>
     </row>
@@ -879,29 +861,27 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>-14793.25910013589</v>
+        <v>-14899.34865874246</v>
       </c>
       <c r="F11" t="n">
-        <v>-14088.58029457289</v>
+        <v>-14240.75373598352</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-10567.36969500981</v>
+        <v>-10725.88047531903</v>
       </c>
       <c r="I11" t="n">
-        <v>-4814.895719635182</v>
+        <v>-4768.676739721323</v>
       </c>
       <c r="J11" t="n">
-        <v>-10356.31601447853</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17032.24106979089</v>
-      </c>
+        <v>-10348.44945001071</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-7774.768419621522</v>
+        <v>-7717.923873694974</v>
       </c>
       <c r="M11" t="n">
-        <v>-7718.754039051301</v>
+        <v>-7680.286816169467</v>
       </c>
       <c r="N11" t="inlineStr"/>
     </row>
@@ -919,29 +899,27 @@
         <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>-14774.56118960972</v>
+        <v>-14879.38028422389</v>
       </c>
       <c r="F12" t="n">
-        <v>-14473.24992038886</v>
+        <v>-14623.89081821339</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-11364.79836528306</v>
+        <v>-11528.58733408687</v>
       </c>
       <c r="I12" t="n">
-        <v>-5188.978277346022</v>
+        <v>-5140.572701466059</v>
       </c>
       <c r="J12" t="n">
-        <v>-10777.47676774748</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16776.34054463441</v>
-      </c>
+        <v>-10770.23461924116</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-8020.780540350764</v>
+        <v>-7962.288291445067</v>
       </c>
       <c r="M12" t="n">
-        <v>-7960.488824061461</v>
+        <v>-7926.503621119712</v>
       </c>
       <c r="N12" t="inlineStr"/>
     </row>
@@ -959,29 +937,27 @@
         <v>0.1</v>
       </c>
       <c r="E13" t="n">
-        <v>-14744.76045527916</v>
+        <v>-14848.32136947689</v>
       </c>
       <c r="F13" t="n">
-        <v>-14859.89382245637</v>
+        <v>-15008.61054675155</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-12113.72077968919</v>
+        <v>-12282.27412052263</v>
       </c>
       <c r="I13" t="n">
-        <v>-5550.127580416562</v>
+        <v>-5499.358732043073</v>
       </c>
       <c r="J13" t="n">
-        <v>-11126.35411007838</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16533.07387549802</v>
-      </c>
+        <v>-11119.57795482952</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-8254.831013300389</v>
+        <v>-8194.947591990192</v>
       </c>
       <c r="M13" t="n">
-        <v>-8190.44830544042</v>
+        <v>-8160.975564450083</v>
       </c>
       <c r="N13" t="inlineStr"/>
     </row>
@@ -999,29 +975,27 @@
         <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-14704.46694019521</v>
+        <v>-14806.75877059858</v>
       </c>
       <c r="F14" t="n">
-        <v>-15252.36130122123</v>
+        <v>-15398.93772718506</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-12814.57152390728</v>
+        <v>-12987.34903890891</v>
       </c>
       <c r="I14" t="n">
-        <v>-5897.698356989697</v>
+        <v>-5844.386771387821</v>
       </c>
       <c r="J14" t="n">
-        <v>-11404.57977119239</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16301.75576972124</v>
-      </c>
+        <v>-11397.2249001622</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-8477.609202086967</v>
+        <v>-8416.592370144004</v>
       </c>
       <c r="M14" t="n">
-        <v>-8409.324802860965</v>
+        <v>-8384.392761860245</v>
       </c>
       <c r="N14" t="inlineStr"/>
     </row>
@@ -1039,29 +1013,27 @@
         <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>-14654.14739127098</v>
+        <v>-14755.13463764299</v>
       </c>
       <c r="F15" t="n">
-        <v>-15655.64394476589</v>
+        <v>-15800.18518443577</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-13467.68177926122</v>
+        <v>-13644.07671499898</v>
       </c>
       <c r="I15" t="n">
-        <v>-6230.882431438998</v>
+        <v>-6174.845866385319</v>
       </c>
       <c r="J15" t="n">
-        <v>-11631.28907916662</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16081.84470843122</v>
-      </c>
+        <v>-11622.51748348351</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-8689.661080212374</v>
+        <v>-8627.769471641825</v>
       </c>
       <c r="M15" t="n">
-        <v>-8617.66752639926</v>
+        <v>-8597.301618933911</v>
       </c>
       <c r="N15" t="inlineStr"/>
     </row>
@@ -1079,29 +1051,27 @@
         <v>0.1</v>
       </c>
       <c r="E16" t="n">
-        <v>-14594.1581257084</v>
+        <v>-14693.77713262921</v>
       </c>
       <c r="F16" t="n">
-        <v>-16083.38291560021</v>
+        <v>-16227.01871943612</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-14073.34717477056</v>
+        <v>-14252.60853695139</v>
       </c>
       <c r="I16" t="n">
-        <v>-6548.739191584799</v>
+        <v>-6489.792628736642</v>
       </c>
       <c r="J16" t="n">
-        <v>-11821.22015694202</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15872.91225077961</v>
-      </c>
+        <v>-11810.57741271251</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-8891.420051893931</v>
+        <v>-8828.912676661908</v>
       </c>
       <c r="M16" t="n">
-        <v>-8815.913460256756</v>
+        <v>-8800.135518962752</v>
       </c>
       <c r="N16" t="inlineStr"/>
     </row>
@@ -1119,29 +1089,27 @@
         <v>0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>-14524.76902495761</v>
+        <v>-14622.92198717325</v>
       </c>
       <c r="F17" t="n">
-        <v>-16560.92759245813</v>
+        <v>-16703.98387080587</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-14631.8202423345</v>
+        <v>-14813.00386009985</v>
       </c>
       <c r="I17" t="n">
-        <v>-6850.216887074772</v>
+        <v>-6788.172526677108</v>
       </c>
       <c r="J17" t="n">
-        <v>-11982.99005803845</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15674.62150435967</v>
-      </c>
+        <v>-11970.20219394626</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-9083.228627159224</v>
+        <v>-9020.364222074997</v>
       </c>
       <c r="M17" t="n">
-        <v>-9004.409253483582</v>
+        <v>-8993.236347390843</v>
       </c>
       <c r="N17" t="inlineStr"/>
     </row>
@@ -1159,29 +1127,27 @@
         <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>-14446.18191800952</v>
+        <v>-14542.72790171434</v>
       </c>
       <c r="F18" t="n">
-        <v>-17060.75311492392</v>
+        <v>-17202.4247366055</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-15143.13654640457</v>
+        <v>-15325.24511327646</v>
       </c>
       <c r="I18" t="n">
-        <v>-7134.16776155833</v>
+        <v>-7068.835012293986</v>
       </c>
       <c r="J18" t="n">
-        <v>-12121.94067500889</v>
-      </c>
-      <c r="K18" t="n">
-        <v>15486.71175914377</v>
-      </c>
+        <v>-12106.8121874864</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-9265.353942065694</v>
+        <v>-9202.390164730203</v>
       </c>
       <c r="M18" t="n">
-        <v>-9183.427683269914</v>
+        <v>-9176.869854663159</v>
       </c>
       <c r="N18" t="inlineStr"/>
     </row>
@@ -1199,29 +1165,27 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-14358.54551871103</v>
+        <v>-14453.2876436654</v>
       </c>
       <c r="F19" t="n">
-        <v>-17561.8605781523</v>
+        <v>-17701.47435380716</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-15607.03002168963</v>
+        <v>-15789.24867829114</v>
       </c>
       <c r="I19" t="n">
-        <v>-7399.358876298218</v>
+        <v>-7330.544341542107</v>
       </c>
       <c r="J19" t="n">
-        <v>-12241.71090586509</v>
-      </c>
-      <c r="K19" t="n">
-        <v>15308.98742726683</v>
-      </c>
+        <v>-12224.07721334279</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-9437.99895263275</v>
+        <v>-9375.191443291695</v>
       </c>
       <c r="M19" t="n">
-        <v>-9353.183019730079</v>
+        <v>-9351.236714612851</v>
       </c>
       <c r="N19" t="inlineStr"/>
     </row>
@@ -1239,29 +1203,27 @@
         <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>-14261.96936468515</v>
+        <v>-14354.6360264532</v>
       </c>
       <c r="F20" t="n">
-        <v>-18051.02146306258</v>
+        <v>-18188.10018150853</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-16023.1266390752</v>
+        <v>-16204.8727287552</v>
       </c>
       <c r="I20" t="n">
-        <v>-7644.479807292788</v>
+        <v>-7571.987268684944</v>
       </c>
       <c r="J20" t="n">
-        <v>-12345.02778649188</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15141.31010655029</v>
-      </c>
+        <v>-12324.72579585042</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>-9601.310427467944</v>
+        <v>-9538.911820567242</v>
       </c>
       <c r="M20" t="n">
-        <v>-9513.85686917368</v>
+        <v>-9516.480460151412</v>
       </c>
       <c r="N20" t="inlineStr"/>
     </row>
@@ -1279,29 +1241,27 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>-14156.53613093239</v>
+        <v>-14246.75553454571</v>
       </c>
       <c r="F21" t="n">
-        <v>-18519.0157308452</v>
+        <v>-18653.21904181875</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-16391.08622054099</v>
+        <v>-16571.92279387054</v>
       </c>
       <c r="I21" t="n">
-        <v>-7868.147980984567</v>
+        <v>-7791.778380012891</v>
       </c>
       <c r="J21" t="n">
-        <v>-12434.17518006835</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14983.59300265912</v>
-      </c>
+        <v>-12411.0139917304</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-9755.384410980367</v>
+        <v>-9693.64347115025</v>
       </c>
       <c r="M21" t="n">
-        <v>-9665.675109704625</v>
+        <v>-9672.693061150485</v>
       </c>
       <c r="N21" t="inlineStr"/>
     </row>
@@ -1319,29 +1279,27 @@
         <v>0.1</v>
       </c>
       <c r="E22" t="n">
-        <v>-14042.3089716367</v>
+        <v>-14129.58009018362</v>
       </c>
       <c r="F22" t="n">
-        <v>-18958.86444395059</v>
+        <v>-19089.95669143617</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-16710.59662895101</v>
+        <v>-16890.15554197086</v>
       </c>
       <c r="I22" t="n">
-        <v>-8068.91214416545</v>
+        <v>-7988.463562305315</v>
       </c>
       <c r="J22" t="n">
-        <v>-12511.38993340611</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14835.79721424875</v>
-      </c>
+        <v>-12485.10066294037</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-9900.269534145782</v>
+        <v>-9839.430709548789</v>
       </c>
       <c r="M22" t="n">
-        <v>-9809.139315426926</v>
+        <v>-9819.918640019476</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1359,29 +1317,27 @@
         <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>-13919.35438969125</v>
+        <v>-14002.99727406342</v>
       </c>
       <c r="F23" t="n">
-        <v>-19364.90404317457</v>
+        <v>-19492.73775266913</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-16981.33810827016</v>
+        <v>-17159.28109249928</v>
       </c>
       <c r="I23" t="n">
-        <v>-8245.254280160441</v>
+        <v>-8160.521918028024</v>
       </c>
       <c r="J23" t="n">
-        <v>-12579.50482014596</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14697.92956898674</v>
-      </c>
+        <v>-12549.59487634091</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>-10035.9683973263</v>
+        <v>-9976.272170246257</v>
       </c>
       <c r="M23" t="n">
-        <v>-9945.280937293965</v>
+        <v>-9958.155637008327</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1399,29 +1355,27 @@
         <v>0.1</v>
       </c>
       <c r="E24" t="n">
-        <v>-13787.75788089891</v>
+        <v>-13866.84917852947</v>
       </c>
       <c r="F24" t="n">
-        <v>-19732.2477639971</v>
+        <v>-19856.76437379347</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-17202.96163844956</v>
+        <v>-17378.96402434119</v>
       </c>
       <c r="I24" t="n">
-        <v>-8395.590149639351</v>
+        <v>-8306.366305565574</v>
       </c>
       <c r="J24" t="n">
-        <v>-12837.15946546845</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14570.04183206583</v>
-      </c>
+        <v>-12609.64102164208</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-10162.4372603304</v>
+        <v>-10104.12161722621</v>
       </c>
       <c r="M24" t="n">
-        <v>-10074.68940858443</v>
+        <v>-10087.35760357325</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1439,29 +1393,27 @@
         <v>0.1</v>
       </c>
       <c r="E25" t="n">
-        <v>-13647.64796740356</v>
+        <v>-13720.93196511489</v>
       </c>
       <c r="F25" t="n">
-        <v>-20056.39994783821</v>
+        <v>-20177.70658502119</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-17375.07845869269</v>
+        <v>-17548.82312685132</v>
       </c>
       <c r="I25" t="n">
-        <v>-8518.268527655193</v>
+        <v>-8424.342576068559</v>
       </c>
       <c r="J25" t="n">
-        <v>-13038.24512610355</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14452.23121557445</v>
-      </c>
+        <v>-12976.89097066306</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-10279.58441279616</v>
+        <v>-10222.88745361331</v>
       </c>
       <c r="M25" t="n">
-        <v>-10196.42683416719</v>
+        <v>-10207.43269542421</v>
       </c>
       <c r="N25" t="inlineStr"/>
     </row>
@@ -1479,29 +1431,27 @@
         <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>-13499.22824785836</v>
+        <v>-13564.99410242253</v>
       </c>
       <c r="F26" t="n">
-        <v>-21060.88717590627</v>
+        <v>-20451.52299547244</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-17497.2541500072</v>
+        <v>-17668.42981879444</v>
       </c>
       <c r="I26" t="n">
-        <v>-8611.569112630717</v>
+        <v>-8512.727482648201</v>
       </c>
       <c r="J26" t="n">
-        <v>-13226.60066984662</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14344.64221296652</v>
-      </c>
+        <v>-13162.09289266745</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-10387.2676682476</v>
+        <v>-10332.43090614582</v>
       </c>
       <c r="M26" t="n">
-        <v>-10309.42833318791</v>
+        <v>-10318.24184102565</v>
       </c>
       <c r="N26" t="inlineStr"/>
     </row>
@@ -1519,29 +1469,27 @@
         <v>0.1</v>
       </c>
       <c r="E27" t="n">
-        <v>-13342.82065382794</v>
+        <v>-13398.73316188386</v>
       </c>
       <c r="F27" t="n">
-        <v>-21551.15521983939</v>
+        <v>-20674.37005794273</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-17569.00376314127</v>
+        <v>-17737.30502707851</v>
       </c>
       <c r="I27" t="n">
-        <v>-8673.698984534241</v>
+        <v>-8569.725139200014</v>
       </c>
       <c r="J27" t="n">
-        <v>-13399.92920863579</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14247.46988135132</v>
-      </c>
+        <v>-13332.30273553403</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-10485.29118454639</v>
+        <v>-10432.5627607384</v>
       </c>
       <c r="M27" t="n">
-        <v>-10413.14304818743</v>
+        <v>-10419.59546287158</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1559,29 +1507,27 @@
         <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>-13178.92366234018</v>
+        <v>-13221.79093390607</v>
       </c>
       <c r="F28" t="n">
-        <v>-22020.01994512908</v>
+        <v>-20842.57619385098</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-17589.78637477881</v>
+        <v>-17754.91416706108</v>
       </c>
       <c r="I28" t="n">
-        <v>-8702.787374426392</v>
+        <v>-8593.461791114245</v>
       </c>
       <c r="J28" t="n">
-        <v>-13555.6516008926</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14160.96480938077</v>
-      </c>
+        <v>-13484.89842491519</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-10573.40129076732</v>
+        <v>-10523.03841044562</v>
       </c>
       <c r="M28" t="n">
-        <v>-10507.22441185347</v>
+        <v>-10511.24851383287</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1599,29 +1545,27 @@
         <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>-13008.2891356762</v>
+        <v>-13033.74647756939</v>
       </c>
       <c r="F29" t="n">
-        <v>-22463.76729543618</v>
+        <v>-20952.66589871431</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-17558.99822416733</v>
+        <v>-17720.65970558864</v>
       </c>
       <c r="I29" t="n">
-        <v>-8696.878358170035</v>
+        <v>-8581.978510788093</v>
       </c>
       <c r="J29" t="n">
-        <v>-13690.50944620458</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14085.44015789912</v>
-      </c>
+        <v>-13616.58281084169</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-10651.2805296394</v>
+        <v>-10603.5508279454</v>
       </c>
       <c r="M29" t="n">
-        <v>-10591.33610864435</v>
+        <v>-10592.89344153205</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1639,29 +1583,27 @@
         <v>0.1</v>
       </c>
       <c r="E30" t="n">
-        <v>-12832.01942457243</v>
+        <v>-12834.10650725661</v>
       </c>
       <c r="F30" t="n">
-        <v>-22877.61001455663</v>
+        <v>-22986.75278456606</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-17475.96386698358</v>
+        <v>-17633.87062813609</v>
       </c>
       <c r="I30" t="n">
-        <v>-8653.920877254459</v>
+        <v>-8533.221221078378</v>
       </c>
       <c r="J30" t="n">
-        <v>-13799.97047920347</v>
-      </c>
-      <c r="K30" t="n">
-        <v>14021.2813703592</v>
-      </c>
+        <v>-13722.77917090105</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-10718.53891662389</v>
+        <v>-10673.72086510194</v>
       </c>
       <c r="M30" t="n">
-        <v>-10665.0878429771</v>
+        <v>-10664.15048392501</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1679,29 +1621,27 @@
         <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>-12651.67947086024</v>
+        <v>-12622.2922071622</v>
       </c>
       <c r="F31" t="n">
-        <v>-23254.07040557607</v>
+        <v>-23357.46770187011</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-17339.92500356235</v>
+        <v>-17493.78796008635</v>
       </c>
       <c r="I31" t="n">
-        <v>-8571.755177153715</v>
+        <v>-8445.0271373999</v>
       </c>
       <c r="J31" t="n">
-        <v>-13877.09054518612</v>
-      </c>
-      <c r="K31" t="n">
-        <v>13968.95946253899</v>
-      </c>
+        <v>-13796.48505158139</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-10774.70132168561</v>
+        <v>-10733.08397000092</v>
       </c>
       <c r="M31" t="n">
-        <v>-10728.00867801439</v>
+        <v>-10724.55438683638</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1719,29 +1659,27 @@
         <v>0.1</v>
       </c>
       <c r="E32" t="n">
-        <v>-12435.89673097022</v>
+        <v>-12397.62107676905</v>
       </c>
       <c r="F32" t="n">
-        <v>-23577.81925032319</v>
+        <v>-23673.83821874335</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-17150.02725350042</v>
+        <v>-17299.54521414467</v>
       </c>
       <c r="I32" t="n">
-        <v>-8448.094265619613</v>
+        <v>-8315.106231307454</v>
       </c>
       <c r="J32" t="n">
-        <v>-13910.03491962034</v>
-      </c>
-      <c r="K32" t="n">
-        <v>13929.04928911151</v>
-      </c>
+        <v>-13825.81287517511</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>-10819.18963639634</v>
+        <v>-10781.07192428326</v>
       </c>
       <c r="M32" t="n">
-        <v>-10779.52560423865</v>
+        <v>-10773.53614632797</v>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
@@ -1759,29 +1697,27 @@
         <v>0.1</v>
       </c>
       <c r="E33" t="n">
-        <v>-12200.55152399782</v>
+        <v>-12159.28161496567</v>
       </c>
       <c r="F33" t="n">
-        <v>-23787.98181318228</v>
+        <v>-23866.17642724281</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-16905.30697817744</v>
+        <v>-17050.14200960645</v>
       </c>
       <c r="I33" t="n">
-        <v>-8280.498197623314</v>
+        <v>-8141.015522961152</v>
       </c>
       <c r="J33" t="n">
-        <v>-13877.77959206575</v>
-      </c>
-      <c r="K33" t="n">
-        <v>13902.25498030867</v>
-      </c>
+        <v>-13790.01613617058</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>-10851.2979422625</v>
+        <v>-10816.98740847983</v>
       </c>
       <c r="M33" t="n">
-        <v>-10818.93731062978</v>
+        <v>-10810.39758334254</v>
       </c>
       <c r="N33" t="inlineStr"/>
     </row>
@@ -1799,29 +1735,27 @@
         <v>0.1</v>
       </c>
       <c r="E34" t="n">
-        <v>-11950.62422155648</v>
+        <v>-11906.29729509757</v>
       </c>
       <c r="F34" t="n">
-        <v>-23130.32403538352</v>
+        <v>-23199.39550359561</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-16604.68355746536</v>
+        <v>-16744.40772710992</v>
       </c>
       <c r="I34" t="n">
-        <v>-8066.337637805413</v>
+        <v>-7920.12265444372</v>
       </c>
       <c r="J34" t="n">
-        <v>-13758.87919395374</v>
-      </c>
-      <c r="K34" t="n">
-        <v>13889.44609777505</v>
-      </c>
+        <v>-13669.03697539917</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>-10870.15895382261</v>
+        <v>-10839.96784792601</v>
       </c>
       <c r="M34" t="n">
-        <v>-10845.37777189702</v>
+        <v>-10834.27520263404</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1839,29 +1773,27 @@
         <v>0.1</v>
       </c>
       <c r="E35" t="n">
-        <v>-11684.92437509051</v>
+        <v>-11637.47385820028</v>
       </c>
       <c r="F35" t="n">
-        <v>-22252.34395450242</v>
+        <v>-22330.2248984674</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-16246.95600418455</v>
+        <v>-16380.94934410524</v>
       </c>
       <c r="I35" t="n">
-        <v>-7802.740725392186</v>
+        <v>-7649.552770752647</v>
       </c>
       <c r="J35" t="n">
-        <v>-13562.14335404628</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13891.71048461161</v>
-      </c>
+        <v>-13471.95812002445</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-10874.70548997372</v>
+        <v>-10848.93256696633</v>
       </c>
       <c r="M35" t="n">
-        <v>-10857.76326389282</v>
+        <v>-10844.08736285056</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1879,29 +1811,27 @@
         <v>0.1</v>
       </c>
       <c r="E36" t="n">
-        <v>-11401.96416464693</v>
+        <v>-11351.3193592175</v>
       </c>
       <c r="F36" t="n">
-        <v>-21340.45871225731</v>
+        <v>-21426.29403035503</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-15830.73149351809</v>
+        <v>-15958.07256079664</v>
       </c>
       <c r="I36" t="n">
-        <v>-7486.512672481563</v>
+        <v>-7326.108142668222</v>
       </c>
       <c r="J36" t="n">
-        <v>-13307.09948002201</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13910.43437866449</v>
-      </c>
+        <v>-13217.42989906958</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-10863.67098164287</v>
+        <v>-10842.5026867575</v>
       </c>
       <c r="M36" t="n">
-        <v>-10854.71215074927</v>
+        <v>-10838.45419201501</v>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
@@ -1919,29 +1849,27 @@
         <v>0.1</v>
       </c>
       <c r="E37" t="n">
-        <v>-11099.83129135338</v>
+        <v>-11045.91708657915</v>
       </c>
       <c r="F37" t="n">
-        <v>-20421.61791963209</v>
+        <v>-20514.77532081725</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-15354.10799266555</v>
+        <v>-15473.6556668127</v>
       </c>
       <c r="I37" t="n">
-        <v>-7114.008208967894</v>
+        <v>-6946.140650967406</v>
       </c>
       <c r="J37" t="n">
-        <v>-13004.75587602689</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13947.42967574708</v>
-      </c>
+        <v>-12916.01823684587</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-10835.86365175044</v>
+        <v>-10818.87388738903</v>
       </c>
       <c r="M37" t="n">
-        <v>-10834.41754021472</v>
+        <v>-10815.57036791764</v>
       </c>
       <c r="N37" t="inlineStr"/>
     </row>
@@ -1959,29 +1887,27 @@
         <v>0.1</v>
       </c>
       <c r="E38" t="n">
-        <v>-10775.97425693979</v>
+        <v>-10718.71089418844</v>
       </c>
       <c r="F38" t="n">
-        <v>-19511.95860230586</v>
+        <v>-19612.01863334554</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-14814.24903824286</v>
+        <v>-14924.93497839207</v>
       </c>
       <c r="I38" t="n">
-        <v>-6680.916399135681</v>
+        <v>-6505.336669627664</v>
       </c>
       <c r="J38" t="n">
-        <v>-12659.91554719688</v>
-      </c>
-      <c r="K38" t="n">
-        <v>14005.14881771952</v>
-      </c>
+        <v>-12572.34045278476</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>-10790.7635077318</v>
+        <v>-10775.60157325609</v>
       </c>
       <c r="M38" t="n">
-        <v>-10794.43232899061</v>
+        <v>-10772.99030110966</v>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
@@ -1999,29 +1925,27 @@
         <v>0.1</v>
       </c>
       <c r="E39" t="n">
-        <v>-10426.8087166221</v>
+        <v>-10366.11165983843</v>
       </c>
       <c r="F39" t="n">
-        <v>-18623.9202780116</v>
+        <v>-18730.85763893521</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-14207.15600291543</v>
+        <v>-14308.11017393307</v>
       </c>
       <c r="I39" t="n">
-        <v>-6181.866513287788</v>
+        <v>-5998.323059828958</v>
       </c>
       <c r="J39" t="n">
-        <v>-12273.48706681318</v>
-      </c>
-      <c r="K39" t="n">
-        <v>14087.07862200915</v>
-      </c>
+        <v>-12187.21038773678</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-10725.81226192583</v>
+        <v>-10709.20715471533</v>
       </c>
       <c r="M39" t="n">
-        <v>-10731.27531995953</v>
+        <v>-10707.23443235181</v>
       </c>
       <c r="N39" t="inlineStr"/>
     </row>
@@ -2039,29 +1963,27 @@
         <v>0.1</v>
       </c>
       <c r="E40" t="n">
-        <v>-10046.90742893535</v>
+        <v>-9982.687466498695</v>
       </c>
       <c r="F40" t="n">
-        <v>-17768.75835521565</v>
+        <v>-17883.3068087732</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-13527.06061496806</v>
+        <v>-13617.53232021646</v>
       </c>
       <c r="I40" t="n">
-        <v>-5609.617473423657</v>
+        <v>-5417.856867698204</v>
       </c>
       <c r="J40" t="n">
-        <v>-11842.91469970236</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14198.5505334986</v>
-      </c>
+        <v>-11758.01211603645</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-10633.75395801286</v>
+        <v>-10614.36804001349</v>
       </c>
       <c r="M40" t="n">
-        <v>-10639.6209286707</v>
+        <v>-10612.97923750822</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2079,29 +2001,27 @@
         <v>0.1</v>
       </c>
       <c r="E41" t="n">
-        <v>-9627.009784302321</v>
+        <v>-9559.173724389357</v>
       </c>
       <c r="F41" t="n">
-        <v>-16977.08889633523</v>
+        <v>-17103.66391110163</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-12764.4344086931</v>
+        <v>-12843.71159218037</v>
       </c>
       <c r="I41" t="n">
-        <v>-4953.066847661883</v>
+        <v>-4752.834938198834</v>
       </c>
       <c r="J41" t="n">
-        <v>-11360.76374808955</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14348.73132402336</v>
-      </c>
+        <v>-11277.26494952375</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>-10504.31570298717</v>
+        <v>-10481.92755066652</v>
       </c>
       <c r="M41" t="n">
-        <v>-10510.30845215606</v>
+        <v>-10481.06715233524</v>
       </c>
       <c r="N41" t="inlineStr"/>
     </row>
